--- a/TR-SLL FEA Analysis/TRL-Deformation-FEAData.xlsx
+++ b/TR-SLL FEA Analysis/TRL-Deformation-FEAData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Srivatsan\HSA-gripper-files\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\D\Git-First\HSA-Gripper\TR-SLL FEA Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69046901-8814-43A5-A19C-CCB655883740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DEEB55-1BF3-4E06-9B1B-AE60AB083582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="19176" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3308,32 +3308,32 @@
   <dimension ref="B1:S123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="40.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1796875" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O4" s="5">
         <v>44840</v>
       </c>
@@ -3341,12 +3341,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="R5" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N6" s="8" t="s">
         <v>2</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
         <v>7</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>32.905763968696789</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="21">
         <v>2</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>15.333407738023839</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="21">
         <v>3</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>8.0194178250713968</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="21">
         <v>4</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>4.6777701484500751</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="21">
         <v>5</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>2.9604371270389427</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="21">
         <v>6</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>1.9918174189116307</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="21">
         <v>7</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>1.4044489960535691</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="21">
         <v>8</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>1.0278301975723239</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="21">
         <v>9</v>
       </c>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="21">
         <v>10</v>
       </c>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="21">
         <v>11</v>
       </c>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="21">
         <v>12</v>
       </c>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="21">
         <v>13</v>
       </c>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="21">
         <v>14</v>
       </c>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="21">
         <v>15</v>
       </c>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="21">
         <v>16</v>
       </c>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="21">
         <v>17</v>
       </c>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="21">
         <v>18</v>
       </c>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="21">
         <v>19</v>
       </c>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="21">
         <v>20</v>
       </c>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="21">
         <v>21</v>
       </c>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="21">
         <v>22</v>
       </c>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="21">
         <v>23</v>
       </c>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="21">
         <v>24</v>
       </c>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="21">
         <v>25</v>
       </c>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="21">
         <v>26</v>
       </c>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="21">
         <v>27</v>
       </c>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="21">
         <v>28</v>
       </c>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="21">
         <v>29</v>
       </c>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="21">
         <v>30</v>
       </c>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="21">
         <v>31</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>15.745831833805401</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="21">
         <v>32</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>15.838412250454001</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="21">
         <v>33</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>15.9544205872189</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="21">
         <v>34</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>16.000351956286998</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="21">
         <v>35</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>16.016438973024201</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="21">
         <v>36</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>15.941747750863501</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="21">
         <v>37</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>16.103641672979698</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="21">
         <v>38</v>
       </c>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="21">
         <v>39</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>16.2356673472115</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="21">
         <v>40</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>16.2967715615247</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="21">
         <v>41</v>
       </c>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="21">
         <v>42</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>16.589148324061899</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="21">
         <v>43</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>16.6496975376241</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="21">
         <v>44</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>16.659080014450499</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="21">
         <v>45</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>16.627073073490202</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="21">
         <v>46</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>16.666036757324999</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="21">
         <v>47</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>16.758276436625</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="21">
         <v>48</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>16.760456165963902</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="21">
         <v>49</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>16.794242595134801</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="21">
         <v>50</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>16.913909104245398</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="21">
         <v>51</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>16.927559455825001</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="21">
         <v>52</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>16.9421891735551</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="21">
         <v>53</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>16.894630370040499</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="21">
         <v>54</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>16.988268960992801</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="21">
         <v>55</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>3.3525348786880489E-3</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="21">
         <v>56</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>3.3612514175105977E-3</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="21">
         <v>57</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>3.3591458197516073E-3</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="21">
         <v>58</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>3.3872270168987593E-3</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="21">
         <v>59</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>3.3689291303285263E-3</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="21">
         <v>60</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>3.3631365923758615E-3</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="21">
         <v>61</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>3.3754711256858247E-3</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="21">
         <v>62</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>3.4036923113159034E-3</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="21">
         <v>63</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>3.3953954652714987E-3</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="21">
         <v>64</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>3.3981659064399776E-3</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="21">
         <v>65</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>3.4088883219646135E-3</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="21">
         <v>66</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>3.4300372476298879E-3</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="21">
         <v>67</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>3.4083367414598576E-3</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="21">
         <v>68</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>3.4195120862226011E-3</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="21">
         <v>69</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>3.4187938805601199E-3</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="21">
         <v>70</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>3.4301461876561235E-3</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="21">
         <v>71</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>3.4180083676640738E-3</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="21">
         <v>72</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>3.421439122079502E-3</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="21">
         <v>73</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>3.432372784206621E-3</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="21">
         <v>74</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>3.4417036961137569E-3</v>
       </c>
     </row>
-    <row r="81" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="21">
         <v>75</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>3.4662694442619667E-3</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="21">
         <v>76</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>3.4545891140998863E-3</v>
       </c>
     </row>
-    <row r="83" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="21">
         <v>77</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>3.4394050939342289E-3</v>
       </c>
     </row>
-    <row r="84" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="21">
         <v>78</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>3.5120386151333755E-3</v>
       </c>
     </row>
-    <row r="85" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="21">
         <v>79</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>3.4675041984486479E-3</v>
       </c>
     </row>
-    <row r="86" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="21">
         <v>80</v>
       </c>
@@ -5059,118 +5059,118 @@
         <v>3.4788946096993281E-3</v>
       </c>
     </row>
-    <row r="87" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D87" s="10"/>
     </row>
-    <row r="88" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D88" s="10"/>
     </row>
-    <row r="89" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D89" s="10"/>
       <c r="E89" s="12"/>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
     </row>
-    <row r="90" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D90" s="10"/>
     </row>
-    <row r="91" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D91" s="10"/>
     </row>
-    <row r="92" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D92" s="10"/>
     </row>
-    <row r="93" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D93" s="10"/>
     </row>
-    <row r="94" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D94" s="10"/>
     </row>
-    <row r="95" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D95" s="10"/>
     </row>
-    <row r="96" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D96" s="10"/>
     </row>
-    <row r="97" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D97" s="10"/>
     </row>
-    <row r="98" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D98" s="10"/>
     </row>
-    <row r="99" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D99" s="10"/>
     </row>
-    <row r="100" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D100" s="10"/>
     </row>
-    <row r="101" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D101" s="10"/>
     </row>
-    <row r="102" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D102" s="10"/>
     </row>
-    <row r="103" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D103" s="10"/>
     </row>
-    <row r="104" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D104" s="10"/>
     </row>
-    <row r="105" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D105" s="10"/>
     </row>
-    <row r="106" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D106" s="10"/>
     </row>
-    <row r="107" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D107" s="10"/>
     </row>
-    <row r="108" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D108" s="10"/>
     </row>
-    <row r="109" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D109" s="10"/>
     </row>
-    <row r="110" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D110" s="10"/>
     </row>
-    <row r="111" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D111" s="10"/>
     </row>
-    <row r="112" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D112" s="10"/>
     </row>
-    <row r="113" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D113" s="10"/>
     </row>
-    <row r="114" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D114" s="10"/>
     </row>
-    <row r="115" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D115" s="10"/>
     </row>
-    <row r="116" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D116" s="10"/>
     </row>
-    <row r="117" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D117" s="10"/>
     </row>
-    <row r="118" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D118" s="10"/>
     </row>
-    <row r="119" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D119" s="10"/>
     </row>
-    <row r="120" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D120" s="10"/>
     </row>
-    <row r="121" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D121" s="10"/>
     </row>
-    <row r="122" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D122" s="10"/>
     </row>
-    <row r="123" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D123" s="10"/>
     </row>
   </sheetData>
